--- a/server/data/prizes.xlsx
+++ b/server/data/prizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hofmann\Documents\github\hofmannhe\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791131BC-A543-4AC5-84C7-94FC4CAE41E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16553B-B40F-4C00-BAF9-1956217F4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:F921"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -591,7 +591,7 @@
         <v>600</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
